--- a/test case.xlsx
+++ b/test case.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/test case.xlsx
+++ b/test case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -46,18 +46,9 @@
     <t>admin'/*</t>
   </si>
   <si>
-    <t>) or '1'='1--</t>
-  </si>
-  <si>
-    <t>) or ('1'='1--</t>
-  </si>
-  <si>
     <t xml:space="preserve"> or 1=1--</t>
   </si>
   <si>
-    <t xml:space="preserve"> or 1=1#</t>
-  </si>
-  <si>
     <t>anubhav123</t>
   </si>
   <si>
@@ -65,6 +56,18 @@
   </si>
   <si>
     <t>admin'--</t>
+  </si>
+  <si>
+    <t>' ) or ('1'='1--</t>
+  </si>
+  <si>
+    <t>') or '1'='1--</t>
+  </si>
+  <si>
+    <t>' or 1=1--</t>
+  </si>
+  <si>
+    <t>' or 1=1#</t>
   </si>
 </sst>
 </file>
@@ -138,13 +141,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,48 +522,48 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
+      <c r="A9" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -562,6 +571,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
